--- a/adapterFPix2DTBTestProtocol_SN010.xlsx
+++ b/adapterFPix2DTBTestProtocol_SN010.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="102">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Final decision:</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>1) Do not connect the adapter. Turn HV on, read after 60 sec</t>
   </si>
   <si>
@@ -325,6 +322,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Frank Meier</t>
+  </si>
+  <si>
+    <t>This is a minor fault, just one GND not connected. Should still be usable</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1259,12 +1262,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="32">
@@ -1276,11 +1279,11 @@
     </row>
     <row r="5" spans="1:15" ht="18">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>47</v>
@@ -1288,17 +1291,17 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="31">
         <v>23070432</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="27">
         <v>0.1</v>
@@ -1309,11 +1312,11 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="31">
         <v>26</v>
@@ -1321,11 +1324,11 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="31">
         <v>1268080</v>
@@ -2845,7 +2848,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2862,12 +2865,12 @@
         <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
       <c r="M57" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2878,22 +2881,22 @@
         <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
       <c r="M58" s="31" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="I59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
       <c r="M59" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -2901,7 +2904,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18">
@@ -2917,7 +2920,7 @@
         <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2928,34 +2931,34 @@
         <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J65" s="25"/>
       <c r="K65" s="17"/>
     </row>
     <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66" s="33">
         <v>99</v>
       </c>
       <c r="L66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M66" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K67" s="33">
         <v>9.99</v>
@@ -2964,29 +2967,29 @@
         <v>45</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="I69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K69" s="34">
         <f>102000*K67*0.000001</f>
         <v>1.01898</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="25">
         <v>4.4999999999999998E-2</v>
@@ -2995,12 +2998,12 @@
         <v>45</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="25">
         <v>4.2999999999999997E-2</v>
@@ -3011,7 +3014,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" s="25">
         <f>C71-C70</f>
@@ -3030,14 +3033,14 @@
         <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K72" s="19">
         <f>K66+K69</f>
         <v>100.01898</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3071,16 +3074,23 @@
         <f>IF(AND(B53="PASS",B60="PASS",B75="PASS",M57="y",M58="y",M59="y"),"ACCEPTED","REJECTED")</f>
         <v>REJECTED</v>
       </c>
+      <c r="E78" s="18" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="27"/>
+      <c r="B80" s="27" t="s">
+        <v>100</v>
+      </c>
       <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="35"/>
+      <c r="F80" s="35">
+        <v>41836</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
